--- a/MarathonSchedule.xlsx
+++ b/MarathonSchedule.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atravitz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atravitz/Documents/marathon_training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702DBED-9229-0F4C-8C4B-C875B3DEA1EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3242C65B-9F72-6E44-A198-80FF9BC68A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="480" windowWidth="21980" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="460" windowWidth="24160" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Descriptions" sheetId="3" r:id="rId2"/>
+    <sheet name="Fueling" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Descriptions!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Fueling!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Schedule!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>MON</t>
   </si>
@@ -101,9 +105,6 @@
   </si>
   <si>
     <t>4 mi pace</t>
-  </si>
-  <si>
-    <t>3 mi pace</t>
   </si>
   <si>
     <t>cross train</t>
@@ -181,6 +182,63 @@
   </si>
   <si>
     <t>0 mi run</t>
+  </si>
+  <si>
+    <t>massage</t>
+  </si>
+  <si>
+    <t>3 mi xc ski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoga </t>
+  </si>
+  <si>
+    <t>5 mi elliptical</t>
+  </si>
+  <si>
+    <t>tabata class</t>
+  </si>
+  <si>
+    <t>8 mi elliptical</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>25 min swim</t>
+  </si>
+  <si>
+    <t>1 mi run</t>
+  </si>
+  <si>
+    <t>45 min swim</t>
+  </si>
+  <si>
+    <t>1.5 mi run</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>2 hr workout</t>
+  </si>
+  <si>
+    <t>1.5 mi pace</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>pace (mph)</t>
+  </si>
+  <si>
+    <t>intake per hour (kcal/hr)</t>
+  </si>
+  <si>
+    <t>total intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gu chew servings </t>
   </si>
 </sst>
 </file>
@@ -369,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -406,21 +464,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -446,6 +495,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +529,286 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0A0101"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -763,9 +1115,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Schedule" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Schedule" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -780,18 +1132,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssignmentSchedule" displayName="AssignmentSchedule" ref="C4:K23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssignmentSchedule" displayName="AssignmentSchedule" ref="C4:K24" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="C4:K23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MON" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TUE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="WED" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="THU" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FRI" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6026AF40-D68B-544D-978E-B001EE56A6D8}" name="SAT" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SUN" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{260884FE-CA73-C048-A72D-52CD79F1E9B8}" name="Weekly Mileage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MON" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TUE" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="WED" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="THU" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FRI" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6026AF40-D68B-544D-978E-B001EE56A6D8}" name="SAT" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SUN" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{260884FE-CA73-C048-A72D-52CD79F1E9B8}" name="Weekly Mileage" dataDxfId="9" totalsRowDxfId="0">
       <calculatedColumnFormula>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1011,10 +1363,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1099,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1132,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1165,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1180,7 +1532,7 @@
         <v>43479</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>10</v>
@@ -1198,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1227,11 +1579,11 @@
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <v>9</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1252,19 +1604,19 @@
         <v>19</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <v>14</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1293,11 +1645,11 @@
       <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <v>15</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1314,26 +1666,26 @@
       <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9">
         <v>13</v>
       </c>
       <c r="K12" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]])+AssignmentSchedule[[#This Row],[SUN]]</f>
+        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[FRI]])+AssignmentSchedule[[#This Row],[SUN]]</f>
         <v>28</v>
       </c>
     </row>
@@ -1344,30 +1696,30 @@
       <c r="C13" s="8">
         <v>43514</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="22">
         <v>17</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>23</v>
+      <c r="J13" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="K13" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1377,26 +1729,26 @@
       <c r="C14" s="8">
         <v>43521</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="22">
         <v>18</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>23</v>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K14" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1410,30 +1762,30 @@
       <c r="C15" s="8">
         <v>43528</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="22">
         <v>13</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="14">
-        <v>13</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>23</v>
+      <c r="J15" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="K15" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1443,26 +1795,26 @@
       <c r="C16" s="8">
         <v>43535</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="22">
         <v>19</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>23</v>
+      <c r="J16" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="K16" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
@@ -1476,30 +1828,30 @@
       <c r="C17" s="8">
         <v>43542</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="F17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9">
         <v>12</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>23</v>
+      <c r="I17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="K17" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>30</v>
+        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+AssignmentSchedule[[#This Row],[FRI]]</f>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1509,60 +1861,60 @@
       <c r="C18" s="8">
         <v>43549</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9">
         <v>20</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="K18" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>35</v>
+        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SUN]]</f>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="8">
         <v>43556</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="14">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>30</v>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="11" t="str">
+        <f>LEFT(AssignmentSchedule[[#This Row],[SUN]])</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1572,30 +1924,23 @@
       <c r="C20" s="8">
         <v>43563</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="D20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>23</v>
+      <c r="I20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="K20" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1605,30 +1950,30 @@
       <c r="C21" s="8">
         <v>43570</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="14">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>23</v>
+      <c r="H21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K21" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>26</v>
+        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[THU]])</f>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1638,61 +1983,72 @@
       <c r="C22" s="8">
         <v>43577</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="I22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="14">
-        <v>8</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="K22" s="11">
-        <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]]) +AssignmentSchedule[[#This Row],[SAT]]</f>
-        <v>19</v>
+        <f>LEFT(AssignmentSchedule[[#This Row],[WED]])+LEFT(AssignmentSchedule[[#This Row],[THU]])</f>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="8">
         <v>43584</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>26</v>
       </c>
       <c r="K23" s="11">
         <f>LEFT(AssignmentSchedule[[#This Row],[TUE]])+LEFT(AssignmentSchedule[[#This Row],[THU]])+LEFT(AssignmentSchedule[[#This Row],[SAT]])+AssignmentSchedule[[#This Row],[SUN]]</f>
         <v>33</v>
       </c>
+    </row>
+    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1722,257 +2078,257 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" style="17" customWidth="1"/>
-    <col min="4" max="10" width="17.5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="14" customWidth="1"/>
+    <col min="4" max="10" width="17.5" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="3:11" ht="209" x14ac:dyDescent="0.15">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" ht="361" x14ac:dyDescent="0.15">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="361" x14ac:dyDescent="0.15">
-      <c r="C3" s="19" t="s">
+    <row r="4" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="3:11" ht="304" x14ac:dyDescent="0.15">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="3:11" ht="304" x14ac:dyDescent="0.15">
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="3:11" ht="285" x14ac:dyDescent="0.15">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="3:11" ht="285" x14ac:dyDescent="0.15">
-      <c r="C7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="23"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1983,4 +2339,325 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C0AD24-902E-4C40-8691-C5EB11635D64}">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:K24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="17.5" style="25" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="3:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="27"/>
+      <c r="D2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="28"/>
+      <c r="D3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E2*0.63*E3*0.3</f>
+        <v>187.9605</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="8"/>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(26.2/E3-1.5)*E4</f>
+        <v>475.68464999999998</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="8"/>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="12">
+        <f>E5/80</f>
+        <v>5.9460581249999995</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="29"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF86D20-AE85-AA45-8657-D2F0F0F36E7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>